--- a/biology/Biochimie/Géranylgéranylation/Géranylgéranylation.xlsx
+++ b/biology/Biochimie/Géranylgéranylation/Géranylgéranylation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9ranylg%C3%A9ranylation</t>
+          <t>Géranylgéranylation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La géranylgéranylation est une forme de prénylation faisant intervenir la liaison covalente d'une ou deux unités de géranylgéranyl-pyrophosphate sur un ou deux résidus de cystéine à l'extrémité C-terminale de protéines spécifiques. La prénylation en général, et la géranylgéranylation en particulier, ont notamment pour rôle d'assurer un l'ancrage de certaines protéines à la membrane plasmique ou à d'autres membranes biologiques[1].
-Cette réaction peut être catalysée par une géranylgéranyltransférase de type 1 (GGTase I) ou une géranylgéranyltransférase Rab (en) (GGTase II). Une GGTase I catalyse l'addition d'un groupe géranylgéranyle sur la séquence consensus CaaL, où C représente un résidu de cystéine, a représente un acide aminé à chaîne latérale aliphatique, et L représente un résidu de leucine, de manière relativement semblable à la réaction catalysées par une farnésyltransférase (en). Une GGTase II ajoute deux groupes géranylgéranyle sur deux résidus de cystéines d'une séquence consensus C-terminale de type CXC ou XXCC. La source des groupes géranylgéranyle de ces réactions est le géranylgéranyl-pyrophosphate produit par une géranylgéranyle diphosphate synthase de la biosynthèse des terpénoïdes[2].
-L'ancrage lipidique des GTPases Rho (en)[3] de signalisation cellulaire et de la sous-unité gamma de la protéine G hétérotrimérique sont des exemples de mise en œuvre physiologique de la géranylgéranylation.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La géranylgéranylation est une forme de prénylation faisant intervenir la liaison covalente d'une ou deux unités de géranylgéranyl-pyrophosphate sur un ou deux résidus de cystéine à l'extrémité C-terminale de protéines spécifiques. La prénylation en général, et la géranylgéranylation en particulier, ont notamment pour rôle d'assurer un l'ancrage de certaines protéines à la membrane plasmique ou à d'autres membranes biologiques.
+Cette réaction peut être catalysée par une géranylgéranyltransférase de type 1 (GGTase I) ou une géranylgéranyltransférase Rab (en) (GGTase II). Une GGTase I catalyse l'addition d'un groupe géranylgéranyle sur la séquence consensus CaaL, où C représente un résidu de cystéine, a représente un acide aminé à chaîne latérale aliphatique, et L représente un résidu de leucine, de manière relativement semblable à la réaction catalysées par une farnésyltransférase (en). Une GGTase II ajoute deux groupes géranylgéranyle sur deux résidus de cystéines d'une séquence consensus C-terminale de type CXC ou XXCC. La source des groupes géranylgéranyle de ces réactions est le géranylgéranyl-pyrophosphate produit par une géranylgéranyle diphosphate synthase de la biosynthèse des terpénoïdes.
+L'ancrage lipidique des GTPases Rho (en) de signalisation cellulaire et de la sous-unité gamma de la protéine G hétérotrimérique sont des exemples de mise en œuvre physiologique de la géranylgéranylation.
 </t>
         </is>
       </c>
